--- a/CEAQL BOM.xlsx
+++ b/CEAQL BOM.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newsp\Dropbox\AU Factory Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79014C88-F9E4-4E3E-BE2D-67DB7BC515F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>CEAQL (Collaboratively Engineered Air Quality Lamp) PCB BOM</t>
   </si>
@@ -317,61 +333,99 @@
   </si>
   <si>
     <t>each, at MOQ 5</t>
+  </si>
+  <si>
+    <t>Also available in stainless steel</t>
+  </si>
+  <si>
+    <t>SCREW-001</t>
+  </si>
+  <si>
+    <t>Through Screws, 6-32 x 3"</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/91253a168</t>
+  </si>
+  <si>
+    <t>91253A168</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -379,7 +433,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -389,31 +443,40 @@
     </fill>
   </fills>
   <borders count="13">
-    <border/>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -422,9 +485,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -433,9 +498,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -450,6 +517,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -464,6 +532,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -478,16 +547,25 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -502,6 +580,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -516,6 +595,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -530,806 +610,1110 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="2" width="16.86"/>
-    <col customWidth="1" min="3" max="3" width="28.29"/>
-    <col customWidth="1" min="4" max="4" width="8.0"/>
-    <col customWidth="1" min="5" max="5" width="22.29"/>
-    <col customWidth="1" min="6" max="6" width="53.29"/>
-    <col customWidth="1" min="7" max="7" width="9.86"/>
-    <col customWidth="1" min="8" max="8" width="65.0"/>
-    <col customWidth="1" min="9" max="9" width="12.57"/>
-    <col customWidth="1" min="10" max="10" width="13.29"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="65" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="7.5" customHeight="1"/>
-    <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9">
+      <c r="G4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
         <v>32.96</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f>27.86*5</f>
-        <v>139.3</v>
-      </c>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="12" t="s">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>3675.0</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>3675</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="9">
-        <v>9.95</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="8">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J5" s="9">
         <f>9.95*5</f>
         <v>49.75</v>
       </c>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="12" t="s">
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>5.34</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f>5.13*5</f>
         <v>25.65</v>
       </c>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="12" t="s">
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f>4.95</f>
         <v>4.95</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <f>4.25*5</f>
         <v>21.25</v>
       </c>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="12" t="s">
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2124.0</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2124</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>4.95</v>
       </c>
-      <c r="J8" s="10">
-        <f t="shared" ref="J8:J10" si="1">I8*5</f>
+      <c r="J8" s="9">
+        <f t="shared" ref="J8:J10" si="0">I8*5</f>
         <v>24.75</v>
       </c>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="12" t="s">
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>258.0</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>258</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="9">
-        <v>9.95</v>
-      </c>
-      <c r="J9" s="10">
-        <f t="shared" si="1"/>
+      <c r="G9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="8">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
         <v>49.75</v>
       </c>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="12" t="s">
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1586.0</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1586</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="9">
+      <c r="G10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="8">
         <v>16.96</v>
       </c>
-      <c r="J10" s="10">
-        <f t="shared" si="1"/>
-        <v>84.8</v>
-      </c>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="12" t="s">
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
+        <v>84.800000000000011</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>1.52</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f>1.37*5</f>
-        <v>6.85</v>
-      </c>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="12" t="s">
+        <v>6.8500000000000005</v>
+      </c>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="G12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>2.29</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f>2.08*5</f>
         <v>10.4</v>
       </c>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="12" t="s">
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>1.52</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f>1.47*5</f>
         <v>7.35</v>
       </c>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="12" t="s">
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="G14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>0.65</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f>0.601*5</f>
-        <v>3.005</v>
-      </c>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="12" t="s">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="9">
-        <v>0.55</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J15" s="9">
         <f>0.505*5</f>
-        <v>2.525</v>
-      </c>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="12" t="s">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>1.41</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <f>1.28*5</f>
         <v>6.4</v>
       </c>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="12" t="s">
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>1.37</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <f>1.2*5</f>
         <v>6</v>
       </c>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="12" t="s">
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="G18" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>6.25</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <f>5.99*5</f>
-        <v>29.95</v>
-      </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="12" t="s">
+        <v>29.950000000000003</v>
+      </c>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="16" t="s">
+      <c r="G19" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <f>0.79</f>
         <v>0.79</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <f>0.646*5</f>
         <v>3.23</v>
       </c>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="12" t="s">
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16" t="s">
+      <c r="G20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>0.25</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <f>0.248*5</f>
         <v>1.24</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="12" t="s">
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16" t="s">
+      <c r="G21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>0.67</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <f>0.644*5</f>
         <v>3.22</v>
       </c>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="21"/>
-      <c r="E22" s="11"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="23" t="s">
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="12">
+        <v>3</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="8">
+        <f>7.22/5*D22</f>
+        <v>4.3319999999999999</v>
+      </c>
+      <c r="J22" s="8">
+        <f>I22*5</f>
+        <v>21.66</v>
+      </c>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="20"/>
+      <c r="E23" s="10"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="D24" s="23">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27" t="s">
+      <c r="G24" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I24" s="8">
         <f>87.3/9</f>
-        <v>9.7</v>
-      </c>
-      <c r="J23" s="10">
-        <f>I23*2</f>
-        <v>19.4</v>
-      </c>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="I24" s="9"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="29"/>
-      <c r="I25" s="30" t="s">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J24" s="9">
+        <f>I24*2</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="28"/>
+      <c r="I26" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="31"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="29"/>
-      <c r="I26" s="32">
-        <f>SUM(I4:I23)</f>
-        <v>112.03</v>
-      </c>
-      <c r="J26" s="32">
-        <f>sum(J4:J23)</f>
-        <v>494.82</v>
-      </c>
-      <c r="L26" s="33"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="29"/>
-      <c r="J27" s="34" t="s">
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C27" s="28"/>
+      <c r="I27" s="31">
+        <f>SUM(I4:I24)</f>
+        <v>116.36200000000001</v>
+      </c>
+      <c r="J27" s="31">
+        <f>SUM(J4:J24)</f>
+        <v>516.48000000000013</v>
+      </c>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C28" s="28"/>
+      <c r="J28" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="K27" s="10">
-        <f>J26/5</f>
-        <v>98.964</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="K28" s="9">
+        <f>J27/5</f>
+        <v>103.29600000000002</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1338,26 +1722,26 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F4"/>
-    <hyperlink r:id="rId2" ref="F5"/>
-    <hyperlink r:id="rId3" ref="F6"/>
-    <hyperlink r:id="rId4" ref="F7"/>
-    <hyperlink r:id="rId5" ref="F8"/>
-    <hyperlink r:id="rId6" ref="F9"/>
-    <hyperlink r:id="rId7" ref="F10"/>
-    <hyperlink r:id="rId8" ref="F11"/>
-    <hyperlink r:id="rId9" ref="F12"/>
-    <hyperlink r:id="rId10" ref="F13"/>
-    <hyperlink r:id="rId11" ref="F14"/>
-    <hyperlink r:id="rId12" ref="F15"/>
-    <hyperlink r:id="rId13" ref="F16"/>
-    <hyperlink r:id="rId14" ref="F17"/>
-    <hyperlink r:id="rId15" ref="F18"/>
-    <hyperlink r:id="rId16" ref="F19"/>
-    <hyperlink r:id="rId17" ref="F20"/>
-    <hyperlink r:id="rId18" ref="F21"/>
-    <hyperlink r:id="rId19" ref="F23"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
-  <drawing r:id="rId20"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>